--- a/Images/Style_Function_table_style_professionally.xlsx
+++ b/Images/Style_Function_table_style_professionally.xlsx
@@ -353,7 +353,7 @@
     </fill>
   </fills>
   <!-- $Insert Borders$ -->
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -362,91 +362,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="{'medium','#FF0000'}">
+      <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
-      <right style="{'medium','#FF0000'}">
+      <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
-      <top style="{'medium','#FF0000'}">
+      <top style="medium">
         <color rgb="FFFF0000"/>
       </top>
-      <bottom style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'medium','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="{'medium','#FF0000'}">
+      <bottom style="medium">
         <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
@@ -456,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <!-- $Insert all Styles$ -->
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" borderId="0" fillId="2" fontId="1" xfId="0" applyFill="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
@@ -469,11 +394,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" borderId="1" fillId="4" fontId="4" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" borderId="2" fillId="4" fontId="5" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" borderId="3" fillId="4" fontId="4" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" borderId="4" fillId="4" fontId="5" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" borderId="5" fillId="4" fontId="4" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" borderId="6" fillId="4" fontId="5" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" borderId="1" fillId="4" fontId="5" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -993,7 +914,7 @@
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
@@ -1008,7 +929,7 @@
       <c r="F8" s="4">
         <v>24</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H8" t="s">
@@ -1071,7 +992,7 @@
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C11"/>
@@ -1082,7 +1003,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H11" t="s">

--- a/Images/Style_Function_table_style_professionally.xlsx
+++ b/Images/Style_Function_table_style_professionally.xlsx
@@ -831,7 +831,6 @@
       <c r="F4" s="4">
         <v>12</v>
       </c>
-      <c r="G4"/>
       <c r="H4" t="s">
         <v>22</v>
       </c>
@@ -855,7 +854,6 @@
       <c r="F5" s="4">
         <v>43</v>
       </c>
-      <c r="G5"/>
       <c r="H5" t="s">
         <v>26</v>
       </c>
@@ -995,7 +993,6 @@
       <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C11"/>
       <c r="D11" s="3">
         <v>1800000</v>
       </c>
@@ -1017,7 +1014,6 @@
       <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12"/>
       <c r="D12" s="3">
         <v>8250000</v>
       </c>

--- a/Images/Style_Function_table_style_professionally.xlsx
+++ b/Images/Style_Function_table_style_professionally.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>

--- a/Images/Style_Function_table_style_professionally.xlsx
+++ b/Images/Style_Function_table_style_professionally.xlsx
@@ -347,7 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFACD"/>
+        <fgColor rgb="FFE0FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
